--- a/training/results/ts/baseline/test_results.xlsx
+++ b/training/results/ts/baseline/test_results.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM12"/>
+  <dimension ref="A1:BM16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2626,6 +2626,778 @@
       </c>
       <c r="BM12" t="n">
         <v>0.8974358974358975</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.548541183817788</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.489012817047954</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.012121212121212</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.015035447644143</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.217159169333082</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9099822434957153</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1.608688530411897</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.554707448974842</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.9878787878787879</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.008014931927975</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.417115251897861</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.897784297074037</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.7939393939393939</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.608688530411897</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.554707448974842</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.9878787878787879</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.008014931927975</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.417115251897861</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.897784297074037</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.7939393939393939</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.574416678896625</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1.497308164593323</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.9629274107534976</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2.241931739757827</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.8979387014591215</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1.562825723625076</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1.480622267414629</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.9515151515151515</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.9401530836313445</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>2.192242298764038</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.8990195321547132</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.8121212121212121</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>1.608688530411897</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>1.554707448974842</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.9878787878787879</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>1.008014931927975</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.417115251897861</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.897784297074037</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0.7939393939393939</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>1.589739830057965</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>1.520951818774535</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0.9757575757575757</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0.9808739569609134</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>2.313294435033566</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0.8987107233845442</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0.3878787878787879</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0.806060606060606</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>1.562825723625076</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>1.480622267414629</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0.9515151515151515</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0.9401530836313445</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>2.192242298764038</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>0.8990195321547132</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>0.8121212121212121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.038564563328279</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9309829239962907</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7075471698113209</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.560332300549692</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.8667292047726832</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9071290944123314</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1.046106888726725</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.9533130058205209</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.6415094339622641</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.517915417915418</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.9088056870665566</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.9036608863198459</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.5094339622641509</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.8962264150943396</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.046106888726725</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.9533130058205209</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.6415094339622641</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.517915417915418</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.9088056870665566</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.9036608863198459</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.5094339622641509</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.8962264150943396</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1.098884511589512</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1.002482296045071</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.6792452830188679</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.552486281834108</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1.004970753883797</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.8936416184971099</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.5094339622641509</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.8584905660377359</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1.055086511699307</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.9551572414024911</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.6226415094339622</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.5003170742301177</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.9123253558036167</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.9046242774566474</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.5471698113207547</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.8773584905660378</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>1.046106888726725</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.9533130058205209</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.6415094339622641</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.517915417915418</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.9088056870665566</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.9036608863198459</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0.5094339622641509</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0.8962264150943396</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>1.059547785347108</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0.9601297648377672</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0.6509433962264151</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0.5222632440023744</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0.9218491653274262</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0.9028901734104047</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0.5094339622641509</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>1.055086511699307</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0.9551572414024911</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0.6226415094339622</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0.5003170742301177</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0.9123253558036167</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>0.9046242774566474</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>0.5471698113207547</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>0.8773584905660378</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.300972227079496</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.246892217841183</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8448275862068965</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8251515856005021</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.554740202912904</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9123468426013195</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1.317979121806276</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.259380962711455</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.7974137931034483</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.7640629214192277</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.586040409240032</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.9020970782280867</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.478448275862069</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.8448275862068966</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.317979121806276</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.259380962711455</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.7974137931034483</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.7640629214192277</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.586040409240032</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.9020970782280867</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.478448275862069</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.8448275862068966</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1.298208314403435</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1.237857681832778</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.7801724137931034</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.7455088102247881</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1.532291640472419</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.9023327049952875</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.478448275862069</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.8577586206896551</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1.303179136599787</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1.23363082846522</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.8017241379310345</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.7691221915040731</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1.521845020939784</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.9015080113100848</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.456896551724138</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.8577586206896551</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>1.317979121806276</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>1.259380962711455</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0.7974137931034483</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0.7640629214192277</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>1.586040409240032</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0.9020970782280867</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0.478448275862069</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0.8448275862068966</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>1.309777554159221</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>1.244836832328924</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0.8017241379310345</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0.7720511891901043</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>1.54961873912271</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0.9013509267986176</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0.4612068965517241</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0.8577586206896551</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>1.303179136599787</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>1.23363082846522</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0.8017241379310345</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>0.7691221915040731</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>1.521845020939784</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>0.9015080113100848</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>0.456896551724138</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>0.8577586206896551</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.787300882460601</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.636804595718153</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.060344827586207</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.948982056590752</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.679129284564067</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.885158456228428</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1.814691006280646</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.657328914378429</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.03448275862069</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.9106107660455486</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.746739130434782</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.8785691873235018</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.4224137931034483</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.8017241379310345</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.814691006280646</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.657328914378429</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.03448275862069</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.9106107660455486</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.746739130434782</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.8785691873235018</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.4224137931034483</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.8017241379310345</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.819435304589368</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1.66483854190141</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.051724137931034</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.9377329192546584</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>2.771687370600414</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.8766865390649514</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.4051724137931034</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.8017241379310345</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1.812314199751436</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1.652950808950948</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1.043103448275862</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.9091614906832298</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>2.732246376811595</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.8719799184185755</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.4137931034482759</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>1.814691006280646</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>1.657328914378429</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>1.03448275862069</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.9106107660455486</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.746739130434782</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.8785691873235018</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0.4224137931034483</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0.8017241379310345</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>1.809934272001477</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>1.651415729924927</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>1.03448275862069</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0.9040890269151138</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>2.727173913043478</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0.875588327580797</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0.4224137931034483</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>1.812314199751436</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>1.652950808950948</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>1.043103448275862</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0.9091614906832298</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>2.732246376811595</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>0.8719799184185755</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>0.4137931034482759</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>0.7931034482758621</v>
       </c>
     </row>
   </sheetData>
